--- a/utilities/excel_data_read.xlsx
+++ b/utilities/excel_data_read.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dheerendra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dheerendra\PycharmProjects\NewProject\Python_Hybrid_Project\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7506795B-B87B-417C-BF86-43B9DA6D8756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C853B0AE-382C-43FE-BAA2-ADC21843071F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A3A564AD-5703-4962-80A6-5F5C9DB24594}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3A564AD-5703-4962-80A6-5F5C9DB24594}"/>
   </bookViews>
   <sheets>
     <sheet name="Insurer_Relation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>auto_self</t>
   </si>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ED6B09-FFBF-43A5-94E6-69B5B516DA85}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -550,23 +550,14 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -577,10 +568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34195B19-5A86-4257-A82D-D7C4F3F81C25}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -654,25 +645,17 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
         <v>15</v>
       </c>
     </row>
